--- a/_uniform_words.xlsx
+++ b/_uniform_words.xlsx
@@ -868,9 +868,6 @@
     <t>JACQ</t>
   </si>
   <si>
-    <t>Diversity Collection</t>
-  </si>
-  <si>
     <t>Catalog of Life</t>
   </si>
   <si>
@@ -892,12 +889,6 @@
     <t>CAS Server</t>
   </si>
   <si>
-    <t>GFBio Terminology WebService</t>
-  </si>
-  <si>
-    <t>Marburg WebService</t>
-  </si>
-  <si>
     <t>OGC Compliant Interface</t>
   </si>
   <si>
@@ -964,9 +955,6 @@
     <t>Jacobs University Webservice</t>
   </si>
   <si>
-    <t>Leipzig Webservice</t>
-  </si>
-  <si>
     <t>PANGAEA Intern Metadata</t>
   </si>
   <si>
@@ -976,9 +964,6 @@
     <t>RESTful Webservice</t>
   </si>
   <si>
-    <t>Terminology Tool Webservice</t>
-  </si>
-  <si>
     <t>Terminology Webservice</t>
   </si>
   <si>
@@ -1025,6 +1010,21 @@
   </si>
   <si>
     <t>External Webservice Requestor</t>
+  </si>
+  <si>
+    <t>GFBio Terminology Webservice</t>
+  </si>
+  <si>
+    <t>Marburg Webservices</t>
+  </si>
+  <si>
+    <t>Leipzig Webservices</t>
+  </si>
+  <si>
+    <t>Terminology Tools Webservice</t>
+  </si>
+  <si>
+    <t>Native RDF Quad Store</t>
   </si>
 </sst>
 </file>
@@ -1094,249 +1094,11 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4101,24 +3863,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D126">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="notEqual">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="notEqual">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4511,8 +4273,8 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4907,9 +4669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L334"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5006,14 +4768,14 @@
         <v>-</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" t="str">
         <f>K3</f>
@@ -5025,7 +4787,7 @@
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5040,7 +4802,7 @@
         <v>X</v>
       </c>
       <c r="K3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -5049,7 +4811,7 @@
         <v>-</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -5060,7 +4822,7 @@
         <v>-</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="D4:E67" si="2">K4</f>
+        <f t="shared" ref="E4:E67" si="2">K4</f>
         <v>AAP Widget</v>
       </c>
       <c r="F4" s="3" t="str">
@@ -5069,7 +4831,7 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G71" si="4">IF(EXACT($E4,""),"",IF(B4="-","X",IF(EXACT(B4,$E4),"X","-")))</f>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ref="H4:H71" si="5">IF(EXACT($E4,""),"",IF(C4="-","X",IF(EXACT(C4,$E4),"X","-")))</f>
@@ -5084,7 +4846,7 @@
         <v>X</v>
       </c>
       <c r="K4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5350,7 +5112,7 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -5370,7 +5132,7 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="5"/>
@@ -5522,7 +5284,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -5561,12 +5323,12 @@
         <v>X</v>
       </c>
       <c r="K15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -5605,7 +5367,7 @@
         <v>X</v>
       </c>
       <c r="K16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -5868,7 +5630,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B23" t="str">
         <f>IF($E23&lt;&gt;"","-","")</f>
@@ -5907,7 +5669,7 @@
         <v>X</v>
       </c>
       <c r="K23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5916,7 +5678,7 @@
         <v>-</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="8"/>
@@ -5936,7 +5698,7 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="5"/>
@@ -5951,7 +5713,7 @@
         <v>X</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6126,7 +5888,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="9"/>
@@ -6165,12 +5927,12 @@
         <v>X</v>
       </c>
       <c r="K29" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="9"/>
@@ -6209,7 +5971,7 @@
         <v>X</v>
       </c>
       <c r="K30" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6218,7 +5980,7 @@
         <v>-</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ref="C31:C44" si="11">IF($E31&lt;&gt;"","-","")</f>
@@ -6238,7 +6000,7 @@
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6253,7 +6015,7 @@
         <v>X</v>
       </c>
       <c r="K31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -6346,7 +6108,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B34" t="str">
         <f>IF($E34&lt;&gt;"","-","")</f>
@@ -6385,7 +6147,7 @@
         <v>X</v>
       </c>
       <c r="K34" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -6393,7 +6155,7 @@
         <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="11"/>
@@ -6412,7 +6174,7 @@
       </c>
       <c r="G35" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6472,7 +6234,7 @@
         <v>X</v>
       </c>
       <c r="K36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -6648,7 +6410,7 @@
         <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="11"/>
@@ -6668,7 +6430,7 @@
       </c>
       <c r="G41" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H41" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6688,7 +6450,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B42" t="str">
         <f>IF($E42&lt;&gt;"","-","")</f>
@@ -6727,7 +6489,7 @@
         <v>X</v>
       </c>
       <c r="K42" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -6864,7 +6626,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="13"/>
@@ -6875,7 +6637,7 @@
         <v>-</v>
       </c>
       <c r="D46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
@@ -6902,7 +6664,7 @@
         <v>X</v>
       </c>
       <c r="K46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -6911,14 +6673,14 @@
         <v>-</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
       <c r="D47" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
@@ -6930,7 +6692,7 @@
       </c>
       <c r="G47" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H47" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6945,7 +6707,7 @@
         <v>X</v>
       </c>
       <c r="K47" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -6994,7 +6756,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="13"/>
@@ -7033,12 +6795,12 @@
         <v>X</v>
       </c>
       <c r="K49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="13"/>
@@ -7077,7 +6839,7 @@
         <v>X</v>
       </c>
       <c r="K50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -7090,7 +6852,7 @@
         <v>-</v>
       </c>
       <c r="C51" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="13"/>
@@ -7121,7 +6883,7 @@
         <v>X</v>
       </c>
       <c r="K51" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -7134,7 +6896,7 @@
         <v>-</v>
       </c>
       <c r="C52" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="13"/>
@@ -7165,7 +6927,7 @@
         <v>X</v>
       </c>
       <c r="K52" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -7256,7 +7018,7 @@
         <v>-</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="13"/>
@@ -7276,7 +7038,7 @@
       </c>
       <c r="G55" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H55" s="3" t="str">
         <f t="shared" si="5"/>
@@ -7291,12 +7053,12 @@
         <v>X</v>
       </c>
       <c r="K55" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="13"/>
@@ -7335,7 +7097,7 @@
         <v>X</v>
       </c>
       <c r="K56" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -7557,7 +7319,7 @@
         <v>-</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="13"/>
@@ -7569,7 +7331,7 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
-        <v>GFBio Terminology WebService</v>
+        <v>GFBio Terminology Webservice</v>
       </c>
       <c r="F62" s="3" t="str">
         <f t="shared" si="3"/>
@@ -7577,7 +7339,7 @@
       </c>
       <c r="G62" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H62" s="3" t="str">
         <f t="shared" si="5"/>
@@ -7588,11 +7350,11 @@
         <v>X</v>
       </c>
       <c r="J62" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF($K62="","",IF(EXACT(K62,$E62),"X","-"))</f>
         <v>X</v>
       </c>
       <c r="K62" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -7937,7 +7699,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="13"/>
@@ -7976,7 +7738,7 @@
         <v>X</v>
       </c>
       <c r="K71" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -8069,7 +7831,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="13"/>
@@ -8108,7 +7870,7 @@
         <v>X</v>
       </c>
       <c r="K74" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -8198,7 +7960,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="13"/>
@@ -8218,7 +7980,7 @@
       </c>
       <c r="G77" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H77" s="3" t="str">
         <f t="shared" si="19"/>
@@ -8330,7 +8092,7 @@
         <v>-</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="13"/>
@@ -8350,7 +8112,7 @@
       </c>
       <c r="G80" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H80" s="3" t="str">
         <f t="shared" si="19"/>
@@ -8365,7 +8127,7 @@
         <v>X</v>
       </c>
       <c r="K80" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -8453,7 +8215,7 @@
         <v>X</v>
       </c>
       <c r="K82" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -8620,7 +8382,7 @@
         <v>-</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="21"/>
@@ -8632,7 +8394,7 @@
       </c>
       <c r="E87" t="str">
         <f t="shared" si="16"/>
-        <v>Leipzig Webservice</v>
+        <v>Leipzig Webservices</v>
       </c>
       <c r="F87" s="3" t="str">
         <f t="shared" si="17"/>
@@ -8640,7 +8402,7 @@
       </c>
       <c r="G87" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H87" s="3" t="str">
         <f t="shared" si="19"/>
@@ -8655,7 +8417,7 @@
         <v>X</v>
       </c>
       <c r="K87" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -8922,7 +8684,7 @@
         <v>-</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="21"/>
@@ -8934,7 +8696,7 @@
       </c>
       <c r="E94" t="str">
         <f t="shared" si="16"/>
-        <v>Marburg WebService</v>
+        <v>Marburg Webservices</v>
       </c>
       <c r="F94" s="3" t="str">
         <f t="shared" si="17"/>
@@ -8942,7 +8704,7 @@
       </c>
       <c r="G94" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H94" s="3" t="str">
         <f t="shared" si="19"/>
@@ -8957,7 +8719,7 @@
         <v>X</v>
       </c>
       <c r="K94" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -9094,7 +8856,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="21"/>
@@ -9133,7 +8895,7 @@
         <v>X</v>
       </c>
       <c r="K98" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -9272,7 +9034,7 @@
         <v>-</v>
       </c>
       <c r="C102" t="s">
-        <v>134</v>
+        <v>280</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="21"/>
@@ -9280,7 +9042,7 @@
       </c>
       <c r="E102" t="str">
         <f t="shared" si="16"/>
-        <v>Native RDF Quand Store</v>
+        <v>Native RDF Quad Store</v>
       </c>
       <c r="F102" s="3" t="str">
         <f t="shared" si="17"/>
@@ -9303,7 +9065,7 @@
         <v>X</v>
       </c>
       <c r="K102" t="s">
-        <v>134</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -9352,7 +9114,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="21"/>
@@ -9372,7 +9134,7 @@
       </c>
       <c r="F104" s="3" t="str">
         <f>IF(EXACT($E104,""),"",IF(A104="-","X",IF(EXACT(A104,$E104),"X","-")))</f>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="G104" s="3" t="str">
         <f>IF(EXACT($E104,""),"",IF(B104="-","X",IF(EXACT(B104,$E104),"X","-")))</f>
@@ -9391,7 +9153,7 @@
         <v>X</v>
       </c>
       <c r="K104" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -9490,7 +9252,7 @@
         <v>-</v>
       </c>
       <c r="D107" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="16"/>
@@ -9517,7 +9279,7 @@
         <v>X</v>
       </c>
       <c r="K107" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -9578,7 +9340,7 @@
         <v>-</v>
       </c>
       <c r="D109" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="16"/>
@@ -9605,7 +9367,7 @@
         <v>X</v>
       </c>
       <c r="K109" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -9731,7 +9493,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="21"/>
@@ -9751,7 +9513,7 @@
       </c>
       <c r="F113" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="G113" s="3" t="str">
         <f t="shared" si="18"/>
@@ -9770,7 +9532,7 @@
         <v>X</v>
       </c>
       <c r="K113" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -9779,7 +9541,7 @@
         <v>-</v>
       </c>
       <c r="B114" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="21"/>
@@ -9799,7 +9561,7 @@
       </c>
       <c r="G114" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H114" s="3" t="str">
         <f t="shared" si="22"/>
@@ -9814,7 +9576,7 @@
         <v>X</v>
       </c>
       <c r="K114" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -9951,7 +9713,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="21"/>
@@ -9990,7 +9752,7 @@
         <v>X</v>
       </c>
       <c r="K118" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -10133,7 +9895,7 @@
         <v>-</v>
       </c>
       <c r="D123" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="16"/>
@@ -10160,7 +9922,7 @@
         <v>X</v>
       </c>
       <c r="K123" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -10177,7 +9939,7 @@
         <v>-</v>
       </c>
       <c r="D124" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="16"/>
@@ -10204,7 +9966,7 @@
         <v>X</v>
       </c>
       <c r="K124" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -10221,7 +9983,7 @@
         <v>-</v>
       </c>
       <c r="D125" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="16"/>
@@ -10248,7 +10010,7 @@
         <v>X</v>
       </c>
       <c r="K125" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -10261,7 +10023,7 @@
         <v>-</v>
       </c>
       <c r="C126" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="21"/>
@@ -10292,7 +10054,7 @@
         <v>X</v>
       </c>
       <c r="K126" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -10467,7 +10229,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="21"/>
@@ -10506,7 +10268,7 @@
         <v>X</v>
       </c>
       <c r="K131" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -10550,12 +10312,12 @@
         <v>X</v>
       </c>
       <c r="K132" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="21"/>
@@ -10566,7 +10328,7 @@
         <v>-</v>
       </c>
       <c r="D133" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="27"/>
@@ -10593,7 +10355,7 @@
         <v>X</v>
       </c>
       <c r="K133" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -10688,7 +10450,7 @@
         <v>61</v>
       </c>
       <c r="B136" t="s">
-        <v>216</v>
+        <v>61</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="21"/>
@@ -10708,7 +10470,7 @@
       </c>
       <c r="G136" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H136" s="3" t="str">
         <f t="shared" si="25"/>
@@ -11047,10 +10809,10 @@
         <v>-</v>
       </c>
       <c r="D144" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F144" s="3" t="str">
         <f t="shared" ref="F144" si="29">IF(EXACT($E144,""),"",IF(A144="-","X",IF(EXACT(A144,$E144),"X","-")))</f>
@@ -11073,7 +10835,7 @@
         <v>X</v>
       </c>
       <c r="K144" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -11156,10 +10918,10 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="28"/>
@@ -11179,7 +10941,7 @@
       </c>
       <c r="G147" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H147" s="3" t="str">
         <f t="shared" si="25"/>
@@ -11194,7 +10956,7 @@
         <v>X</v>
       </c>
       <c r="K147" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -11203,7 +10965,7 @@
         <v>-</v>
       </c>
       <c r="B148" t="s">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="28"/>
@@ -11215,7 +10977,7 @@
       </c>
       <c r="E148" t="str">
         <f t="shared" si="27"/>
-        <v>Terminology Tool Webservice</v>
+        <v>Terminology Tools Webservice</v>
       </c>
       <c r="F148" s="3" t="str">
         <f t="shared" si="17"/>
@@ -11223,7 +10985,7 @@
       </c>
       <c r="G148" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H148" s="3" t="str">
         <f t="shared" si="25"/>
@@ -11238,12 +11000,12 @@
         <v>X</v>
       </c>
       <c r="K148" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="28"/>
@@ -11282,7 +11044,7 @@
         <v>X</v>
       </c>
       <c r="K149" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -11498,7 +11260,7 @@
         <v>-</v>
       </c>
       <c r="B155" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="C155" t="s">
         <v>118</v>
@@ -11517,7 +11279,7 @@
       </c>
       <c r="G155" s="3" t="str">
         <f t="shared" si="35"/>
-        <v>-</v>
+        <v>X</v>
       </c>
       <c r="H155" s="3" t="str">
         <f>IF(EXACT($E155,""),"",IF(C155="-","X",IF(EXACT(C155,$E155),"X","-")))</f>
@@ -11581,7 +11343,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="28"/>
@@ -11620,7 +11382,7 @@
         <v>X</v>
       </c>
       <c r="K157" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -11751,7 +11513,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="28"/>
@@ -11790,7 +11552,7 @@
         <v>X</v>
       </c>
       <c r="K161" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -11807,7 +11569,7 @@
         <v>-</v>
       </c>
       <c r="D162" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" si="27"/>
@@ -11834,7 +11596,7 @@
         <v>X</v>
       </c>
       <c r="K162" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -11847,7 +11609,7 @@
         <v>-</v>
       </c>
       <c r="C163" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="28"/>
@@ -11878,7 +11640,7 @@
         <v>X</v>
       </c>
       <c r="K163" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -12071,7 +11833,7 @@
         <v>-</v>
       </c>
       <c r="D168" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="27"/>
@@ -12098,12 +11860,12 @@
         <v>X</v>
       </c>
       <c r="K168" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="28"/>
@@ -12142,7 +11904,7 @@
         <v>X</v>
       </c>
       <c r="K169" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -12285,7 +12047,7 @@
         <v>-</v>
       </c>
       <c r="D173" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="27"/>
@@ -12312,7 +12074,7 @@
         <v>X</v>
       </c>
       <c r="K173" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -15957,18 +15719,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="notEqual">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:J1048576">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_uniform_words.xlsx
+++ b/_uniform_words.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="281">
   <si>
     <t>byFunctions</t>
   </si>
@@ -4669,9 +4669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K102" sqref="K102"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5673,9 +5673,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>IF($E24&lt;&gt;"","-","")</f>
-        <v>-</v>
+      <c r="A24" t="s">
+        <v>228</v>
       </c>
       <c r="B24" t="s">
         <v>218</v>
